--- a/codes/Correlations64_20_1000_10_de 0.6 a 35.xlsx
+++ b/codes/Correlations64_20_1000_10_de 0.6 a 35.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
